--- a/DOC/要件定義/OpenAI連携機能_要件定義書.xlsx
+++ b/DOC/要件定義/OpenAI連携機能_要件定義書.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="機能要件" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="非機能要件" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="API要件" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="データ要件" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="統合要件" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表紙" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="機能要件" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="非機能要件" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="API要件" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="データ要件" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="統合要件" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025年05月16日</t>
+          <t>2025年05月19日</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>/llm/chat</t>
+          <t>/api/v1/llm/chat</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
